--- a/StackAndHeap.xlsx
+++ b/StackAndHeap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaeljo01\Source\Repos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaeljo01\Source\Repos\CodeLouisvilleDemos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -105,18 +105,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,27 +396,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -433,12 +432,13 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="D1:T1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
